--- a/biology/Médecine/Classe_ATC_S/Classe_ATC_S.xlsx
+++ b/biology/Médecine/Classe_ATC_S/Classe_ATC_S.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC S, dénommée « Organes sensoriels », est un groupe anatomique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QS[2]. Le groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC S, dénommée « Organes sensoriels », est un groupe anatomique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QS. Le groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>S Organes sensoriels</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>S01 Ophtalmologie
 S02 Otologie
